--- a/biology/Botanique/Spiranthes_aestivalis/Spiranthes_aestivalis.xlsx
+++ b/biology/Botanique/Spiranthes_aestivalis/Spiranthes_aestivalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spiranthes aestivalis, la spiranthe d'été, est une espèce de plantes herbacées vivace de la famille des Orchidaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante grêle, haute de 15-20 cm, entièrement verte, aux feuilles très allongées, aux petites fleurs disposées en 3 spirales, possédant un rhizome horizontal portant 2 pseudobulbes.
 </t>
@@ -542,13 +556,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : épi simple
 Répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame
-Sa floraison a lieu de juin à juillet[1].
+Sa floraison a lieu de juin à juillet.
 Graine :
 Type de fruit : capsule
 Mode de dissémination : anémochore</t>
@@ -579,9 +595,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Europe méridionale et sud-centrale, Asie mineure, Afrique du Nord ; toute la France, sauf les régions du nord où elle est considérée en voie de disparition[2]. Elle aurait disparu de Belgique (Campine) depuis 1981.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Europe méridionale et sud-centrale, Asie mineure, Afrique du Nord ; toute la France, sauf les régions du nord où elle est considérée en voie de disparition. Elle aurait disparu de Belgique (Campine) depuis 1981.
 </t>
         </is>
       </c>
